--- a/docs/DB/JsonGenerator.xlsx
+++ b/docs/DB/JsonGenerator.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$42</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>category</t>
   </si>
@@ -39,15 +42,6 @@
     <t>Tandoori Chicken (Full)</t>
   </si>
   <si>
-    <t>Galoti Kebab</t>
-  </si>
-  <si>
-    <t>Fish Lasooni Kebab</t>
-  </si>
-  <si>
-    <t>MAIN_COURSE</t>
-  </si>
-  <si>
     <t>DESSERT</t>
   </si>
   <si>
@@ -58,6 +52,120 @@
   </si>
   <si>
     <t>Gulab Jamun (2 pieces)</t>
+  </si>
+  <si>
+    <t>Kadai Chicken</t>
+  </si>
+  <si>
+    <t>Butter Chicken</t>
+  </si>
+  <si>
+    <t>Firni</t>
+  </si>
+  <si>
+    <t>Mutton Rogan Josh</t>
+  </si>
+  <si>
+    <t>Reshmi Chicken</t>
+  </si>
+  <si>
+    <t>Fish Lasooni Kabab</t>
+  </si>
+  <si>
+    <t>Reshmi Chicken Kabab</t>
+  </si>
+  <si>
+    <t>Murgh Zafrani Kabab</t>
+  </si>
+  <si>
+    <t>Galoti Kabab</t>
+  </si>
+  <si>
+    <t>Murgh Qalmi Kabab</t>
+  </si>
+  <si>
+    <t>Murgh Sugandhi Kabab</t>
+  </si>
+  <si>
+    <t>Murgh Afgani Kabab</t>
+  </si>
+  <si>
+    <t>Gosht Kakori Kabab</t>
+  </si>
+  <si>
+    <t>Gosht Shammi Kabab</t>
+  </si>
+  <si>
+    <t>Fish Tikka Kabab</t>
+  </si>
+  <si>
+    <t>Fish Zafrani Kabab</t>
+  </si>
+  <si>
+    <t>Gosht Rann Biryani</t>
+  </si>
+  <si>
+    <t>Murgh Metiabruz Biryani</t>
+  </si>
+  <si>
+    <t>Murgh Kofta Biryani</t>
+  </si>
+  <si>
+    <t>Gosht Metiabruz Biryani</t>
+  </si>
+  <si>
+    <t>Moti Biryani</t>
+  </si>
+  <si>
+    <t>Murgh Pardah Biryani</t>
+  </si>
+  <si>
+    <t>Gosht Pardah Biryani</t>
+  </si>
+  <si>
+    <t>Mutton Chap</t>
+  </si>
+  <si>
+    <t>Murgh Chap</t>
+  </si>
+  <si>
+    <t>Murgh Rezala</t>
+  </si>
+  <si>
+    <t>Mutton Rezala</t>
+  </si>
+  <si>
+    <t>Gosht Bhuna</t>
+  </si>
+  <si>
+    <t>Irani Prawn Masala</t>
+  </si>
+  <si>
+    <t>Gosht Kundan Kalia</t>
+  </si>
+  <si>
+    <t>Kulfi Falooda</t>
+  </si>
+  <si>
+    <t>Gajar Ka Halwa</t>
+  </si>
+  <si>
+    <t>BEVERAGES</t>
+  </si>
+  <si>
+    <t>Gulaab Sharbat</t>
+  </si>
+  <si>
+    <t>Aam Khaas</t>
+  </si>
+  <si>
+    <t>Badam Sharbat</t>
+  </si>
+  <si>
+    <t>Soda Sikanji</t>
+  </si>
+  <si>
+    <t>MAINS</t>
   </si>
 </sst>
 </file>
@@ -413,18 +521,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,8 +560,8 @@
         <v>250</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("{""", $A$1, """:""", A2, """,""", $B$1, """:""", B2, """,""", $C$1, """:", C2, "}")</f>
-        <v>{"category":"STARTER","itemName":"Tandoori Chicken (Half)","itemPrice":250}</v>
+        <f>CONCATENATE("{""", $A$1, """:""", A2, """,""", $B$1, """:""", B2, """,""", $C$1, """:", C2, "},")</f>
+        <v>{"category":"STARTER","itemName":"Tandoori Chicken (Half)","itemPrice":250},</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -467,8 +575,8 @@
         <v>400</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE("{""", $A$1, """:""", A3, """,""", $B$1, """:""", B3, """,""", $C$1, """:", C3, "}")</f>
-        <v>{"category":"STARTER","itemName":"Tandoori Chicken (Full)","itemPrice":400}</v>
+        <f t="shared" ref="D3:D42" si="0">CONCATENATE("{""", $A$1, """:""", A3, """,""", $B$1, """:""", B3, """,""", $C$1, """:", C3, "},")</f>
+        <v>{"category":"STARTER","itemName":"Tandoori Chicken (Full)","itemPrice":400},</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,14 +584,14 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>300</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D8" si="0">CONCATENATE("{""", $A$1, """:""", A4, """,""", $B$1, """:""", B4, """,""", $C$1, """:", C4, "}")</f>
-        <v>{"category":"STARTER","itemName":"Galoti Kebab","itemPrice":300}</v>
+        <f t="shared" si="0"/>
+        <v>{"category":"STARTER","itemName":"Galoti Kabab","itemPrice":300},</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,62 +599,573 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>250</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>{"category":"STARTER","itemName":"Fish Lasooni Kebab","itemPrice":250}</v>
+        <v>{"category":"STARTER","itemName":"Fish Lasooni Kabab","itemPrice":250},</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>300</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>{"category":"MAIN_COURSE","itemName":"Murgh Handi Biryani","itemPrice":300}</v>
+        <v>{"category":"MAINS","itemName":"Murgh Handi Biryani","itemPrice":300},</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
       <c r="C7">
         <v>350</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>{"category":"MAIN_COURSE","itemName":"Gosht Handi Biryani","itemPrice":350}</v>
+        <v>{"category":"MAINS","itemName":"Gosht Handi Biryani","itemPrice":350},</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
       <c r="C8">
         <v>150</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>{"category":"DESSERT","itemName":"Gulab Jamun (2 pieces)","itemPrice":150}</v>
+        <v>{"category":"DESSERT","itemName":"Gulab Jamun (2 pieces)","itemPrice":150},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>270</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Kadai Chicken","itemPrice":270},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Butter Chicken","itemPrice":250},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"DESSERT","itemName":"Firni","itemPrice":120},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Mutton Rogan Josh","itemPrice":300},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Reshmi Chicken","itemPrice":200},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"STARTER","itemName":"Reshmi Chicken Kabab","itemPrice":200},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>210</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"STARTER","itemName":"Murgh Zafrani Kabab","itemPrice":210},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>230</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"STARTER","itemName":"Murgh Qalmi Kabab","itemPrice":230},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>220</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"STARTER","itemName":"Murgh Sugandhi Kabab","itemPrice":220},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>240</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"STARTER","itemName":"Murgh Afgani Kabab","itemPrice":240},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>250</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"STARTER","itemName":"Gosht Kakori Kabab","itemPrice":250},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>270</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"STARTER","itemName":"Gosht Shammi Kabab","itemPrice":270},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>250</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"STARTER","itemName":"Fish Tikka Kabab","itemPrice":250},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>260</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"STARTER","itemName":"Fish Zafrani Kabab","itemPrice":260},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>600</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Gosht Rann Biryani","itemPrice":600},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>350</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Murgh Metiabruz Biryani","itemPrice":350},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>360</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Murgh Kofta Biryani","itemPrice":360},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>380</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Gosht Metiabruz Biryani","itemPrice":380},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>360</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Moti Biryani","itemPrice":360},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>370</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Murgh Pardah Biryani","itemPrice":370},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>400</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Gosht Pardah Biryani","itemPrice":400},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>380</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Mutton Chap","itemPrice":380},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>340</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Murgh Chap","itemPrice":340},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>350</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Murgh Rezala","itemPrice":350},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>380</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Mutton Rezala","itemPrice":380},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>390</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Gosht Bhuna","itemPrice":390},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>360</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Irani Prawn Masala","itemPrice":360},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>400</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"MAINS","itemName":"Gosht Kundan Kalia","itemPrice":400},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>250</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"DESSERT","itemName":"Kulfi Falooda","itemPrice":250},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>230</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"DESSERT","itemName":"Gajar Ka Halwa","itemPrice":230},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>200</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"BEVERAGES","itemName":"Gulaab Sharbat","itemPrice":200},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>250</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"BEVERAGES","itemName":"Aam Khaas","itemPrice":250},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"BEVERAGES","itemName":"Badam Sharbat","itemPrice":200},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>180</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>{"category":"BEVERAGES","itemName":"Soda Sikanji","itemPrice":180},</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D42"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/docs/DB/JsonGenerator.xlsx
+++ b/docs/DB/JsonGenerator.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="FoodItem" sheetId="1" r:id="rId1"/>
+    <sheet name="Address" sheetId="2" r:id="rId2"/>
+    <sheet name="Customer" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FoodItem!$A$1:$D$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t>category</t>
   </si>
@@ -166,13 +166,76 @@
   </si>
   <si>
     <t>MAINS</t>
+  </si>
+  <si>
+    <t>line1</t>
+  </si>
+  <si>
+    <t>line2</t>
+  </si>
+  <si>
+    <t>line3</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>22/23 Feeder Road, Basanta Bihar</t>
+  </si>
+  <si>
+    <t>Belghoria</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Ranjan</t>
+  </si>
+  <si>
+    <t>Saha</t>
+  </si>
+  <si>
+    <t>ranjan.saha1@gmail.com</t>
+  </si>
+  <si>
+    <t>pinCode</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>812c6c509441d38852dc3c4e</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>1991-12-04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +247,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,16 +283,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,24 +1253,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="116.140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2">
+        <v>700056</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>CONCATENATE("{""", $A$1, """:{""$oid"":""", A2, """},", """", $B$1, """:""", B2, """,""", $C$1, """:", IF(ISBLANK(C2), "null", CONCATENATE("""", C2, """")), ",""", $D$1, """:", IF(ISBLANK(D2), "null", CONCATENATE("""", D2, """")), ",""", $E$1, """:""", E2, """,""", $F$1, """:""", F2, """,""", $G$1, """:""", G2, """}")</f>
+        <v>{"_id":{"$oid":"812c6c509441d38852dc3c4e"},"line1":"22/23 Feeder Road, Basanta Bihar","line2":"Belghoria","line3":null,"state":"West Bengal","city":"Kolkata","pinCode":"700056"}</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="109.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>9674467368</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE("{""", $A$1, """:""", A2, """,""", $B$1, """:""", B2, """,""", $C$1, """:""", C2, """,""", $D$1, """:""", D2, """,""", $E$1, """", E2, """}")</f>
+        <v>{"firstName":"Ranjan","lastName":"Saha","phone":"9674467368","email":"ranjan.saha1@gmail.com","dob"1991-12-04"}</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>